--- a/WatanyaPingTester/bin/Debug/res/sokhnaColorReportDetails.xlsx
+++ b/WatanyaPingTester/bin/Debug/res/sokhnaColorReportDetails.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Fahim\C#\New folder\Pingo\WatanyaPingTester\bin\Debug\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fahim\Pingo\WatanyaPingTester\bin\Debug\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2895" windowHeight="720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="14415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <t>Online</t>
   </si>
   <si>
-    <t>From: 27/01/2018 At  1407  To: 27/01/2018 At  1407</t>
+    <t>From: 27-01-2018 At  2131  To: 27-01-2018 At  2131</t>
   </si>
   <si>
     <t>Mokattam:     10.0.10.101</t>
@@ -56,6 +56,9 @@
     <t>M1:     192.168.1.108</t>
   </si>
   <si>
+    <t>Offline</t>
+  </si>
+  <si>
     <t>M1:     10.0.10.110</t>
   </si>
   <si>
@@ -63,9 +66,6 @@
   </si>
   <si>
     <t>Cairo:     10.0.10.105</t>
-  </si>
-  <si>
-    <t>Offline</t>
   </si>
   <si>
     <t>Cairo:     192.168.1.10</t>
@@ -693,8 +693,8 @@
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
+      <c r="A16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>2</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="17" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1"/>
     </row>
@@ -716,13 +716,13 @@
     </row>
     <row r="19" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
+      <c r="A20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>2</v>
@@ -730,13 +730,13 @@
     </row>
     <row r="21" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>2</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>2</v>
@@ -777,8 +777,8 @@
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>1</v>
+      <c r="A28" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>2</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>2</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>2</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>2</v>
@@ -945,8 +945,8 @@
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>1</v>
+      <c r="A52" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>2</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>2</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>2</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>2</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>2</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>2</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>2</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>2</v>
@@ -1197,8 +1197,8 @@
       <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>13</v>
+      <c r="A88" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>2</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>2</v>
@@ -1323,8 +1323,8 @@
       <c r="B105" s="1"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>1</v>
+      <c r="A106" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>2</v>
@@ -1365,8 +1365,8 @@
       <c r="B111" s="1"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>13</v>
+      <c r="A112" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>2</v>
@@ -1379,8 +1379,8 @@
       <c r="B113" s="1"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>1</v>
+      <c r="A114" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>2</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>2</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>2</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>2</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>2</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>2</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>2</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>2</v>
@@ -1491,8 +1491,8 @@
       <c r="B129" s="1"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>1</v>
+      <c r="A130" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>2</v>
@@ -1567,6 +1567,6 @@
     <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WatanyaPingTester/bin/Debug/res/sokhnaColorReportDetails.xlsx
+++ b/WatanyaPingTester/bin/Debug/res/sokhnaColorReportDetails.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="69">
   <si>
     <t>Company:     10.0.10.100</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Online</t>
   </si>
   <si>
-    <t>From: 27-01-2018 At  2131  To: 27-01-2018 At  2131</t>
+    <t>From: 28-01-2018 At  0632  To: 28-01-2018 At  0632</t>
   </si>
   <si>
     <t>Mokattam:     10.0.10.101</t>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Sokhna:     10.0.10.134</t>
+  </si>
+  <si>
+    <t>From: 28-01-2018 At  0632  To: 28-01-2018 At  0643</t>
   </si>
   <si>
     <t>Sokhna:     10.10.10.51</t>
@@ -582,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1323,95 +1326,97 @@
       <c r="B105" s="1"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>10</v>
+      <c r="A106" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+    </row>
+    <row r="108" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B117" s="1"/>
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
@@ -1435,88 +1440,134 @@
       <c r="B121" s="1"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>10</v>
+      <c r="A122" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B123" s="1"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B125" s="1"/>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B127" s="1"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B129" s="1"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>2</v>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A119:B119"/>
     <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A119:B119"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A99:B99"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="A89:B89"/>
